--- a/results/evaluation_java.xlsx
+++ b/results/evaluation_java.xlsx
@@ -17,39 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="17">
   <si>
     <t>Stats for</t>
   </si>
   <si>
     <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral11</t>
-  </si>
-  <si>
-    <t>Spiral12</t>
-  </si>
-  <si>
-    <t>Spiral13</t>
-  </si>
-  <si>
-    <t>Spiral14</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
-  </si>
-  <si>
-    <t>Spiral16</t>
-  </si>
-  <si>
-    <t>Spiral17</t>
-  </si>
-  <si>
-    <t>Spiral18</t>
-  </si>
-  <si>
-    <t>Spiral19</t>
   </si>
   <si>
     <t>Distance</t>
@@ -94,61 +67,7 @@
     <t>ZigZag10</t>
   </si>
   <si>
-    <t>ZigZag11</t>
-  </si>
-  <si>
-    <t>ZigZag12</t>
-  </si>
-  <si>
-    <t>ZigZag13</t>
-  </si>
-  <si>
-    <t>ZigZag14</t>
-  </si>
-  <si>
-    <t>ZigZag15</t>
-  </si>
-  <si>
-    <t>ZigZag16</t>
-  </si>
-  <si>
-    <t>ZigZag17</t>
-  </si>
-  <si>
-    <t>ZigZag18</t>
-  </si>
-  <si>
-    <t>ZigZag19</t>
-  </si>
-  <si>
     <t>Random10</t>
-  </si>
-  <si>
-    <t>Random11</t>
-  </si>
-  <si>
-    <t>Random12</t>
-  </si>
-  <si>
-    <t>Random13</t>
-  </si>
-  <si>
-    <t>Random14</t>
-  </si>
-  <si>
-    <t>Random15</t>
-  </si>
-  <si>
-    <t>Random16</t>
-  </si>
-  <si>
-    <t>Random17</t>
-  </si>
-  <si>
-    <t>Random18</t>
-  </si>
-  <si>
-    <t>Random19</t>
   </si>
 </sst>
 </file>
@@ -203,66 +122,26 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" t="s">
-        <v>8</v>
-      </c>
-      <c r="V2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
@@ -343,7 +222,9 @@
       <c r="CW2"/>
       <c r="CX2"/>
       <c r="CY2"/>
-      <c r="CZ2"/>
+      <c r="CZ2" t="s">
+        <v>1</v>
+      </c>
       <c r="DA2"/>
       <c r="DB2"/>
       <c r="DC2"/>
@@ -353,7 +234,9 @@
       <c r="DG2"/>
       <c r="DH2"/>
       <c r="DI2"/>
-      <c r="DJ2"/>
+      <c r="DJ2" t="s">
+        <v>1</v>
+      </c>
       <c r="DK2"/>
       <c r="DL2"/>
       <c r="DM2"/>
@@ -363,7 +246,9 @@
       <c r="DQ2"/>
       <c r="DR2"/>
       <c r="DS2"/>
-      <c r="DT2"/>
+      <c r="DT2" t="s">
+        <v>1</v>
+      </c>
       <c r="DU2"/>
       <c r="DV2"/>
       <c r="DW2"/>
@@ -456,68 +341,28 @@
     </row>
     <row r="3">
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>97.0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
@@ -598,7 +443,9 @@
       <c r="CW3"/>
       <c r="CX3"/>
       <c r="CY3"/>
-      <c r="CZ3"/>
+      <c r="CZ3" t="n">
+        <v>105.0</v>
+      </c>
       <c r="DA3"/>
       <c r="DB3"/>
       <c r="DC3"/>
@@ -608,7 +455,9 @@
       <c r="DG3"/>
       <c r="DH3"/>
       <c r="DI3"/>
-      <c r="DJ3"/>
+      <c r="DJ3" t="n">
+        <v>89.0</v>
+      </c>
       <c r="DK3"/>
       <c r="DL3"/>
       <c r="DM3"/>
@@ -618,7 +467,9 @@
       <c r="DQ3"/>
       <c r="DR3"/>
       <c r="DS3"/>
-      <c r="DT3"/>
+      <c r="DT3" t="n">
+        <v>90.0</v>
+      </c>
       <c r="DU3"/>
       <c r="DV3"/>
       <c r="DW3"/>
@@ -711,68 +562,28 @@
     </row>
     <row r="4">
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>10.0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
@@ -853,7 +664,9 @@
       <c r="CW4"/>
       <c r="CX4"/>
       <c r="CY4"/>
-      <c r="CZ4"/>
+      <c r="CZ4" t="n">
+        <v>11.0</v>
+      </c>
       <c r="DA4"/>
       <c r="DB4"/>
       <c r="DC4"/>
@@ -863,7 +676,9 @@
       <c r="DG4"/>
       <c r="DH4"/>
       <c r="DI4"/>
-      <c r="DJ4"/>
+      <c r="DJ4" t="n">
+        <v>13.0</v>
+      </c>
       <c r="DK4"/>
       <c r="DL4"/>
       <c r="DM4"/>
@@ -873,7 +688,9 @@
       <c r="DQ4"/>
       <c r="DR4"/>
       <c r="DS4"/>
-      <c r="DT4"/>
+      <c r="DT4" t="n">
+        <v>18.0</v>
+      </c>
       <c r="DU4"/>
       <c r="DV4"/>
       <c r="DW4"/>
@@ -966,68 +783,28 @@
     </row>
     <row r="5">
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>104.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>107.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>109.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>109.0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>107.0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
@@ -1108,7 +885,9 @@
       <c r="CW5"/>
       <c r="CX5"/>
       <c r="CY5"/>
-      <c r="CZ5"/>
+      <c r="CZ5" t="n">
+        <v>116.0</v>
+      </c>
       <c r="DA5"/>
       <c r="DB5"/>
       <c r="DC5"/>
@@ -1118,7 +897,9 @@
       <c r="DG5"/>
       <c r="DH5"/>
       <c r="DI5"/>
-      <c r="DJ5"/>
+      <c r="DJ5" t="n">
+        <v>102.0</v>
+      </c>
       <c r="DK5"/>
       <c r="DL5"/>
       <c r="DM5"/>
@@ -1128,7 +909,9 @@
       <c r="DQ5"/>
       <c r="DR5"/>
       <c r="DS5"/>
-      <c r="DT5"/>
+      <c r="DT5" t="n">
+        <v>108.0</v>
+      </c>
       <c r="DU5"/>
       <c r="DV5"/>
       <c r="DW5"/>
@@ -1221,68 +1004,28 @@
     </row>
     <row r="6">
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6"/>
@@ -1363,7 +1106,9 @@
       <c r="CW6"/>
       <c r="CX6"/>
       <c r="CY6"/>
-      <c r="CZ6"/>
+      <c r="CZ6" t="n">
+        <v>10.0</v>
+      </c>
       <c r="DA6"/>
       <c r="DB6"/>
       <c r="DC6"/>
@@ -1373,7 +1118,9 @@
       <c r="DG6"/>
       <c r="DH6"/>
       <c r="DI6"/>
-      <c r="DJ6"/>
+      <c r="DJ6" t="n">
+        <v>11.0</v>
+      </c>
       <c r="DK6"/>
       <c r="DL6"/>
       <c r="DM6"/>
@@ -1383,7 +1130,9 @@
       <c r="DQ6"/>
       <c r="DR6"/>
       <c r="DS6"/>
-      <c r="DT6"/>
+      <c r="DT6" t="n">
+        <v>12.0</v>
+      </c>
       <c r="DU6"/>
       <c r="DV6"/>
       <c r="DW6"/>
@@ -1476,68 +1225,28 @@
     </row>
     <row r="7">
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>80.0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7"/>
@@ -1618,7 +1327,9 @@
       <c r="CW7"/>
       <c r="CX7"/>
       <c r="CY7"/>
-      <c r="CZ7"/>
+      <c r="CZ7" t="n">
+        <v>110.0</v>
+      </c>
       <c r="DA7"/>
       <c r="DB7"/>
       <c r="DC7"/>
@@ -1628,7 +1339,9 @@
       <c r="DG7"/>
       <c r="DH7"/>
       <c r="DI7"/>
-      <c r="DJ7"/>
+      <c r="DJ7" t="n">
+        <v>103.0</v>
+      </c>
       <c r="DK7"/>
       <c r="DL7"/>
       <c r="DM7"/>
@@ -1638,7 +1351,9 @@
       <c r="DQ7"/>
       <c r="DR7"/>
       <c r="DS7"/>
-      <c r="DT7"/>
+      <c r="DT7" t="n">
+        <v>81.0</v>
+      </c>
       <c r="DU7"/>
       <c r="DV7"/>
       <c r="DW7"/>
@@ -1731,68 +1446,28 @@
     </row>
     <row r="8">
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="n">
-        <v>352.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>401.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>401.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>405.0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>397.0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>388.0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>401.0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>393.0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>401.0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>401.0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>381.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>388.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>405.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>393.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>392.0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>397.0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>401.0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>397.0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>397.0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
       <c r="Z8"/>
@@ -1873,7 +1548,9 @@
       <c r="CW8"/>
       <c r="CX8"/>
       <c r="CY8"/>
-      <c r="CZ8"/>
+      <c r="CZ8" t="n">
+        <v>428.0</v>
+      </c>
       <c r="DA8"/>
       <c r="DB8"/>
       <c r="DC8"/>
@@ -1883,7 +1560,9 @@
       <c r="DG8"/>
       <c r="DH8"/>
       <c r="DI8"/>
-      <c r="DJ8"/>
+      <c r="DJ8" t="n">
+        <v>361.0</v>
+      </c>
       <c r="DK8"/>
       <c r="DL8"/>
       <c r="DM8"/>
@@ -1893,7 +1572,9 @@
       <c r="DQ8"/>
       <c r="DR8"/>
       <c r="DS8"/>
-      <c r="DT8"/>
+      <c r="DT8" t="n">
+        <v>369.0</v>
+      </c>
       <c r="DU8"/>
       <c r="DV8"/>
       <c r="DW8"/>
@@ -1986,68 +1667,28 @@
     </row>
     <row r="9">
       <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
       <c r="X9"/>
       <c r="Y9"/>
       <c r="Z9"/>
@@ -2128,7 +1769,9 @@
       <c r="CW9"/>
       <c r="CX9"/>
       <c r="CY9"/>
-      <c r="CZ9"/>
+      <c r="CZ9" t="n">
+        <v>40.0</v>
+      </c>
       <c r="DA9"/>
       <c r="DB9"/>
       <c r="DC9"/>
@@ -2138,7 +1781,9 @@
       <c r="DG9"/>
       <c r="DH9"/>
       <c r="DI9"/>
-      <c r="DJ9"/>
+      <c r="DJ9" t="n">
+        <v>49.0</v>
+      </c>
       <c r="DK9"/>
       <c r="DL9"/>
       <c r="DM9"/>
@@ -2148,7 +1793,9 @@
       <c r="DQ9"/>
       <c r="DR9"/>
       <c r="DS9"/>
-      <c r="DT9"/>
+      <c r="DT9" t="n">
+        <v>68.0</v>
+      </c>
       <c r="DU9"/>
       <c r="DV9"/>
       <c r="DW9"/>
@@ -2241,68 +1888,28 @@
     </row>
     <row r="10">
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>26.0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
       <c r="X10"/>
       <c r="Y10"/>
       <c r="Z10"/>
@@ -2383,7 +1990,9 @@
       <c r="CW10"/>
       <c r="CX10"/>
       <c r="CY10"/>
-      <c r="CZ10"/>
+      <c r="CZ10" t="n">
+        <v>491.0</v>
+      </c>
       <c r="DA10"/>
       <c r="DB10"/>
       <c r="DC10"/>
@@ -2393,7 +2002,9 @@
       <c r="DG10"/>
       <c r="DH10"/>
       <c r="DI10"/>
-      <c r="DJ10"/>
+      <c r="DJ10" t="n">
+        <v>677.0</v>
+      </c>
       <c r="DK10"/>
       <c r="DL10"/>
       <c r="DM10"/>
@@ -2403,7 +2014,9 @@
       <c r="DQ10"/>
       <c r="DR10"/>
       <c r="DS10"/>
-      <c r="DT10"/>
+      <c r="DT10" t="n">
+        <v>516.0</v>
+      </c>
       <c r="DU10"/>
       <c r="DV10"/>
       <c r="DW10"/>
@@ -2496,68 +2109,28 @@
     </row>
     <row r="11">
       <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4092.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>4052.0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3956.0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>4092.0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>4054.0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4068.0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>4093.0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>3991.0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>4052.0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>4070.0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
       <c r="X11"/>
       <c r="Y11"/>
       <c r="Z11"/>
@@ -2638,7 +2211,9 @@
       <c r="CW11"/>
       <c r="CX11"/>
       <c r="CY11"/>
-      <c r="CZ11"/>
+      <c r="CZ11" t="n">
+        <v>3605.0</v>
+      </c>
       <c r="DA11"/>
       <c r="DB11"/>
       <c r="DC11"/>
@@ -2648,7 +2223,9 @@
       <c r="DG11"/>
       <c r="DH11"/>
       <c r="DI11"/>
-      <c r="DJ11"/>
+      <c r="DJ11" t="n">
+        <v>3419.0</v>
+      </c>
       <c r="DK11"/>
       <c r="DL11"/>
       <c r="DM11"/>
@@ -2658,7 +2235,9 @@
       <c r="DQ11"/>
       <c r="DR11"/>
       <c r="DS11"/>
-      <c r="DT11"/>
+      <c r="DT11" t="n">
+        <v>3580.0</v>
+      </c>
       <c r="DU11"/>
       <c r="DV11"/>
       <c r="DW11"/>
@@ -2751,68 +2330,28 @@
     </row>
     <row r="12">
       <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
       <c r="X12"/>
       <c r="Y12"/>
       <c r="Z12"/>
@@ -2893,7 +2432,9 @@
       <c r="CW12"/>
       <c r="CX12"/>
       <c r="CY12"/>
-      <c r="CZ12"/>
+      <c r="CZ12" t="n">
+        <v>0.0</v>
+      </c>
       <c r="DA12"/>
       <c r="DB12"/>
       <c r="DC12"/>
@@ -2903,7 +2444,9 @@
       <c r="DG12"/>
       <c r="DH12"/>
       <c r="DI12"/>
-      <c r="DJ12"/>
+      <c r="DJ12" t="n">
+        <v>0.0</v>
+      </c>
       <c r="DK12"/>
       <c r="DL12"/>
       <c r="DM12"/>
@@ -2913,7 +2456,9 @@
       <c r="DQ12"/>
       <c r="DR12"/>
       <c r="DS12"/>
-      <c r="DT12"/>
+      <c r="DT12" t="n">
+        <v>0.0</v>
+      </c>
       <c r="DU12"/>
       <c r="DV12"/>
       <c r="DW12"/>
@@ -3006,68 +2551,28 @@
     </row>
     <row r="13">
       <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>6.0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
       <c r="X13"/>
       <c r="Y13"/>
       <c r="Z13"/>
@@ -3148,7 +2653,9 @@
       <c r="CW13"/>
       <c r="CX13"/>
       <c r="CY13"/>
-      <c r="CZ13"/>
+      <c r="CZ13" t="n">
+        <v>6.0</v>
+      </c>
       <c r="DA13"/>
       <c r="DB13"/>
       <c r="DC13"/>
@@ -3158,7 +2665,9 @@
       <c r="DG13"/>
       <c r="DH13"/>
       <c r="DI13"/>
-      <c r="DJ13"/>
+      <c r="DJ13" t="n">
+        <v>6.0</v>
+      </c>
       <c r="DK13"/>
       <c r="DL13"/>
       <c r="DM13"/>
@@ -3168,7 +2677,9 @@
       <c r="DQ13"/>
       <c r="DR13"/>
       <c r="DS13"/>
-      <c r="DT13"/>
+      <c r="DT13" t="n">
+        <v>6.0</v>
+      </c>
       <c r="DU13"/>
       <c r="DV13"/>
       <c r="DW13"/>
@@ -3261,68 +2772,28 @@
     </row>
     <row r="14">
       <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.0859375</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.097900390625</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.097900390625</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.098876953125</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.096923828125</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.0947265625</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.097900390625</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.095947265625</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.097900390625</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.097900390625</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.09310850439882698</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.09575518262586377</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.10237613751263903</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.09604105571847507</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.09669462259496793</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.09832841691248771</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.09699486928903005</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.10047607116011024</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.09797630799605134</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0.09754299754299754</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14"/>
@@ -3403,7 +2874,9 @@
       <c r="CW14"/>
       <c r="CX14"/>
       <c r="CY14"/>
-      <c r="CZ14"/>
+      <c r="CZ14" t="n">
+        <v>0.11872399445214979</v>
+      </c>
       <c r="DA14"/>
       <c r="DB14"/>
       <c r="DC14"/>
@@ -3413,7 +2886,9 @@
       <c r="DG14"/>
       <c r="DH14"/>
       <c r="DI14"/>
-      <c r="DJ14"/>
+      <c r="DJ14" t="n">
+        <v>0.10558642878034513</v>
+      </c>
       <c r="DK14"/>
       <c r="DL14"/>
       <c r="DM14"/>
@@ -3423,7 +2898,9 @@
       <c r="DQ14"/>
       <c r="DR14"/>
       <c r="DS14"/>
-      <c r="DT14"/>
+      <c r="DT14" t="n">
+        <v>0.10307262569832402</v>
+      </c>
       <c r="DU14"/>
       <c r="DV14"/>
       <c r="DW14"/>
@@ -3531,66 +3008,26 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2" t="s">
-        <v>33</v>
-      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
@@ -3671,7 +3108,9 @@
       <c r="CW2"/>
       <c r="CX2"/>
       <c r="CY2"/>
-      <c r="CZ2"/>
+      <c r="CZ2" t="s">
+        <v>15</v>
+      </c>
       <c r="DA2"/>
       <c r="DB2"/>
       <c r="DC2"/>
@@ -3681,7 +3120,9 @@
       <c r="DG2"/>
       <c r="DH2"/>
       <c r="DI2"/>
-      <c r="DJ2"/>
+      <c r="DJ2" t="s">
+        <v>15</v>
+      </c>
       <c r="DK2"/>
       <c r="DL2"/>
       <c r="DM2"/>
@@ -3691,7 +3132,9 @@
       <c r="DQ2"/>
       <c r="DR2"/>
       <c r="DS2"/>
-      <c r="DT2"/>
+      <c r="DT2" t="s">
+        <v>15</v>
+      </c>
       <c r="DU2"/>
       <c r="DV2"/>
       <c r="DW2"/>
@@ -3784,68 +3227,28 @@
     </row>
     <row r="3">
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>98.0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
@@ -3926,7 +3329,9 @@
       <c r="CW3"/>
       <c r="CX3"/>
       <c r="CY3"/>
-      <c r="CZ3"/>
+      <c r="CZ3" t="n">
+        <v>112.0</v>
+      </c>
       <c r="DA3"/>
       <c r="DB3"/>
       <c r="DC3"/>
@@ -3936,7 +3341,9 @@
       <c r="DG3"/>
       <c r="DH3"/>
       <c r="DI3"/>
-      <c r="DJ3"/>
+      <c r="DJ3" t="n">
+        <v>115.0</v>
+      </c>
       <c r="DK3"/>
       <c r="DL3"/>
       <c r="DM3"/>
@@ -3946,7 +3353,9 @@
       <c r="DQ3"/>
       <c r="DR3"/>
       <c r="DS3"/>
-      <c r="DT3"/>
+      <c r="DT3" t="n">
+        <v>113.0</v>
+      </c>
       <c r="DU3"/>
       <c r="DV3"/>
       <c r="DW3"/>
@@ -4039,68 +3448,28 @@
     </row>
     <row r="4">
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>4.0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
@@ -4181,7 +3550,9 @@
       <c r="CW4"/>
       <c r="CX4"/>
       <c r="CY4"/>
-      <c r="CZ4"/>
+      <c r="CZ4" t="n">
+        <v>10.0</v>
+      </c>
       <c r="DA4"/>
       <c r="DB4"/>
       <c r="DC4"/>
@@ -4191,7 +3562,9 @@
       <c r="DG4"/>
       <c r="DH4"/>
       <c r="DI4"/>
-      <c r="DJ4"/>
+      <c r="DJ4" t="n">
+        <v>9.0</v>
+      </c>
       <c r="DK4"/>
       <c r="DL4"/>
       <c r="DM4"/>
@@ -4201,7 +3574,9 @@
       <c r="DQ4"/>
       <c r="DR4"/>
       <c r="DS4"/>
-      <c r="DT4"/>
+      <c r="DT4" t="n">
+        <v>10.0</v>
+      </c>
       <c r="DU4"/>
       <c r="DV4"/>
       <c r="DW4"/>
@@ -4294,68 +3669,28 @@
     </row>
     <row r="5">
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>102.0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
@@ -4436,7 +3771,9 @@
       <c r="CW5"/>
       <c r="CX5"/>
       <c r="CY5"/>
-      <c r="CZ5"/>
+      <c r="CZ5" t="n">
+        <v>122.0</v>
+      </c>
       <c r="DA5"/>
       <c r="DB5"/>
       <c r="DC5"/>
@@ -4446,7 +3783,9 @@
       <c r="DG5"/>
       <c r="DH5"/>
       <c r="DI5"/>
-      <c r="DJ5"/>
+      <c r="DJ5" t="n">
+        <v>124.0</v>
+      </c>
       <c r="DK5"/>
       <c r="DL5"/>
       <c r="DM5"/>
@@ -4456,7 +3795,9 @@
       <c r="DQ5"/>
       <c r="DR5"/>
       <c r="DS5"/>
-      <c r="DT5"/>
+      <c r="DT5" t="n">
+        <v>123.0</v>
+      </c>
       <c r="DU5"/>
       <c r="DV5"/>
       <c r="DW5"/>
@@ -4549,68 +3890,28 @@
     </row>
     <row r="6">
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6"/>
@@ -4691,7 +3992,9 @@
       <c r="CW6"/>
       <c r="CX6"/>
       <c r="CY6"/>
-      <c r="CZ6"/>
+      <c r="CZ6" t="n">
+        <v>10.0</v>
+      </c>
       <c r="DA6"/>
       <c r="DB6"/>
       <c r="DC6"/>
@@ -4701,7 +4004,9 @@
       <c r="DG6"/>
       <c r="DH6"/>
       <c r="DI6"/>
-      <c r="DJ6"/>
+      <c r="DJ6" t="n">
+        <v>11.0</v>
+      </c>
       <c r="DK6"/>
       <c r="DL6"/>
       <c r="DM6"/>
@@ -4711,7 +4016,9 @@
       <c r="DQ6"/>
       <c r="DR6"/>
       <c r="DS6"/>
-      <c r="DT6"/>
+      <c r="DT6" t="n">
+        <v>12.0</v>
+      </c>
       <c r="DU6"/>
       <c r="DV6"/>
       <c r="DW6"/>
@@ -4804,68 +4111,28 @@
     </row>
     <row r="7">
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>132.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>124.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>116.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>112.0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>133.0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7"/>
@@ -4946,7 +4213,9 @@
       <c r="CW7"/>
       <c r="CX7"/>
       <c r="CY7"/>
-      <c r="CZ7"/>
+      <c r="CZ7" t="n">
+        <v>132.0</v>
+      </c>
       <c r="DA7"/>
       <c r="DB7"/>
       <c r="DC7"/>
@@ -4956,7 +4225,9 @@
       <c r="DG7"/>
       <c r="DH7"/>
       <c r="DI7"/>
-      <c r="DJ7"/>
+      <c r="DJ7" t="n">
+        <v>64.0</v>
+      </c>
       <c r="DK7"/>
       <c r="DL7"/>
       <c r="DM7"/>
@@ -4966,7 +4237,9 @@
       <c r="DQ7"/>
       <c r="DR7"/>
       <c r="DS7"/>
-      <c r="DT7"/>
+      <c r="DT7" t="n">
+        <v>132.0</v>
+      </c>
       <c r="DU7"/>
       <c r="DV7"/>
       <c r="DW7"/>
@@ -5059,68 +4332,28 @@
     </row>
     <row r="8">
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="n">
-        <v>388.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>405.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>393.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>388.0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>397.0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>405.0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>396.0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>393.0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>396.0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>377.0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>404.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>401.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>364.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>404.0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>396.0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>355.0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>400.0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
       <c r="Z8"/>
@@ -5201,7 +4434,9 @@
       <c r="CW8"/>
       <c r="CX8"/>
       <c r="CY8"/>
-      <c r="CZ8"/>
+      <c r="CZ8" t="n">
+        <v>456.0</v>
+      </c>
       <c r="DA8"/>
       <c r="DB8"/>
       <c r="DC8"/>
@@ -5211,7 +4446,9 @@
       <c r="DG8"/>
       <c r="DH8"/>
       <c r="DI8"/>
-      <c r="DJ8"/>
+      <c r="DJ8" t="n">
+        <v>466.0</v>
+      </c>
       <c r="DK8"/>
       <c r="DL8"/>
       <c r="DM8"/>
@@ -5221,7 +4458,9 @@
       <c r="DQ8"/>
       <c r="DR8"/>
       <c r="DS8"/>
-      <c r="DT8"/>
+      <c r="DT8" t="n">
+        <v>460.0</v>
+      </c>
       <c r="DU8"/>
       <c r="DV8"/>
       <c r="DW8"/>
@@ -5314,68 +4553,28 @@
     </row>
     <row r="9">
       <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
       <c r="X9"/>
       <c r="Y9"/>
       <c r="Z9"/>
@@ -5456,7 +4655,9 @@
       <c r="CW9"/>
       <c r="CX9"/>
       <c r="CY9"/>
-      <c r="CZ9"/>
+      <c r="CZ9" t="n">
+        <v>0.0</v>
+      </c>
       <c r="DA9"/>
       <c r="DB9"/>
       <c r="DC9"/>
@@ -5466,7 +4667,9 @@
       <c r="DG9"/>
       <c r="DH9"/>
       <c r="DI9"/>
-      <c r="DJ9"/>
+      <c r="DJ9" t="n">
+        <v>0.0</v>
+      </c>
       <c r="DK9"/>
       <c r="DL9"/>
       <c r="DM9"/>
@@ -5476,7 +4679,9 @@
       <c r="DQ9"/>
       <c r="DR9"/>
       <c r="DS9"/>
-      <c r="DT9"/>
+      <c r="DT9" t="n">
+        <v>8.0</v>
+      </c>
       <c r="DU9"/>
       <c r="DV9"/>
       <c r="DW9"/>
@@ -5569,68 +4774,28 @@
     </row>
     <row r="10">
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>26.0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
       <c r="X10"/>
       <c r="Y10"/>
       <c r="Z10"/>
@@ -5711,7 +4876,9 @@
       <c r="CW10"/>
       <c r="CX10"/>
       <c r="CY10"/>
-      <c r="CZ10"/>
+      <c r="CZ10" t="n">
+        <v>491.0</v>
+      </c>
       <c r="DA10"/>
       <c r="DB10"/>
       <c r="DC10"/>
@@ -5721,7 +4888,9 @@
       <c r="DG10"/>
       <c r="DH10"/>
       <c r="DI10"/>
-      <c r="DJ10"/>
+      <c r="DJ10" t="n">
+        <v>677.0</v>
+      </c>
       <c r="DK10"/>
       <c r="DL10"/>
       <c r="DM10"/>
@@ -5731,7 +4900,9 @@
       <c r="DQ10"/>
       <c r="DR10"/>
       <c r="DS10"/>
-      <c r="DT10"/>
+      <c r="DT10" t="n">
+        <v>516.0</v>
+      </c>
       <c r="DU10"/>
       <c r="DV10"/>
       <c r="DW10"/>
@@ -5824,68 +4995,28 @@
     </row>
     <row r="11">
       <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4092.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>4052.0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3956.0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>4092.0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>4054.0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4068.0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>4093.0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>3991.0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>4052.0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>4070.0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
       <c r="X11"/>
       <c r="Y11"/>
       <c r="Z11"/>
@@ -5966,7 +5097,9 @@
       <c r="CW11"/>
       <c r="CX11"/>
       <c r="CY11"/>
-      <c r="CZ11"/>
+      <c r="CZ11" t="n">
+        <v>3605.0</v>
+      </c>
       <c r="DA11"/>
       <c r="DB11"/>
       <c r="DC11"/>
@@ -5976,7 +5109,9 @@
       <c r="DG11"/>
       <c r="DH11"/>
       <c r="DI11"/>
-      <c r="DJ11"/>
+      <c r="DJ11" t="n">
+        <v>3419.0</v>
+      </c>
       <c r="DK11"/>
       <c r="DL11"/>
       <c r="DM11"/>
@@ -5986,7 +5121,9 @@
       <c r="DQ11"/>
       <c r="DR11"/>
       <c r="DS11"/>
-      <c r="DT11"/>
+      <c r="DT11" t="n">
+        <v>3580.0</v>
+      </c>
       <c r="DU11"/>
       <c r="DV11"/>
       <c r="DW11"/>
@@ -6079,68 +5216,28 @@
     </row>
     <row r="12">
       <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
       <c r="X12"/>
       <c r="Y12"/>
       <c r="Z12"/>
@@ -6221,7 +5318,9 @@
       <c r="CW12"/>
       <c r="CX12"/>
       <c r="CY12"/>
-      <c r="CZ12"/>
+      <c r="CZ12" t="n">
+        <v>0.0</v>
+      </c>
       <c r="DA12"/>
       <c r="DB12"/>
       <c r="DC12"/>
@@ -6231,7 +5330,9 @@
       <c r="DG12"/>
       <c r="DH12"/>
       <c r="DI12"/>
-      <c r="DJ12"/>
+      <c r="DJ12" t="n">
+        <v>0.0</v>
+      </c>
       <c r="DK12"/>
       <c r="DL12"/>
       <c r="DM12"/>
@@ -6241,7 +5342,9 @@
       <c r="DQ12"/>
       <c r="DR12"/>
       <c r="DS12"/>
-      <c r="DT12"/>
+      <c r="DT12" t="n">
+        <v>0.0</v>
+      </c>
       <c r="DU12"/>
       <c r="DV12"/>
       <c r="DW12"/>
@@ -6334,68 +5437,28 @@
     </row>
     <row r="13">
       <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>6.0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
       <c r="X13"/>
       <c r="Y13"/>
       <c r="Z13"/>
@@ -6476,7 +5539,9 @@
       <c r="CW13"/>
       <c r="CX13"/>
       <c r="CY13"/>
-      <c r="CZ13"/>
+      <c r="CZ13" t="n">
+        <v>6.0</v>
+      </c>
       <c r="DA13"/>
       <c r="DB13"/>
       <c r="DC13"/>
@@ -6486,7 +5551,9 @@
       <c r="DG13"/>
       <c r="DH13"/>
       <c r="DI13"/>
-      <c r="DJ13"/>
+      <c r="DJ13" t="n">
+        <v>6.0</v>
+      </c>
       <c r="DK13"/>
       <c r="DL13"/>
       <c r="DM13"/>
@@ -6496,7 +5563,9 @@
       <c r="DQ13"/>
       <c r="DR13"/>
       <c r="DS13"/>
-      <c r="DT13"/>
+      <c r="DT13" t="n">
+        <v>6.0</v>
+      </c>
       <c r="DU13"/>
       <c r="DV13"/>
       <c r="DW13"/>
@@ -6589,68 +5658,28 @@
     </row>
     <row r="14">
       <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.0947265625</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.098876953125</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.095947265625</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.0947265625</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.096923828125</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.098876953125</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.0966796875</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.095947265625</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.0966796875</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.092041015625</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.09775171065493646</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.09970384995064166</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.10136501516683519</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.08895405669599218</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.09965466206216082</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.09832841691248771</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.09772782799902271</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.09922325231771485</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.08761105626850937</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0.09828009828009827</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14"/>
@@ -6731,7 +5760,9 @@
       <c r="CW14"/>
       <c r="CX14"/>
       <c r="CY14"/>
-      <c r="CZ14"/>
+      <c r="CZ14" t="n">
+        <v>0.12649098474341192</v>
+      </c>
       <c r="DA14"/>
       <c r="DB14"/>
       <c r="DC14"/>
@@ -6741,7 +5772,9 @@
       <c r="DG14"/>
       <c r="DH14"/>
       <c r="DI14"/>
-      <c r="DJ14"/>
+      <c r="DJ14" t="n">
+        <v>0.13629716291313249</v>
+      </c>
       <c r="DK14"/>
       <c r="DL14"/>
       <c r="DM14"/>
@@ -6751,7 +5784,9 @@
       <c r="DQ14"/>
       <c r="DR14"/>
       <c r="DS14"/>
-      <c r="DT14"/>
+      <c r="DT14" t="n">
+        <v>0.12849162011173185</v>
+      </c>
       <c r="DU14"/>
       <c r="DV14"/>
       <c r="DW14"/>
@@ -6859,66 +5894,26 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" t="s">
-        <v>43</v>
-      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
@@ -6999,7 +5994,9 @@
       <c r="CW2"/>
       <c r="CX2"/>
       <c r="CY2"/>
-      <c r="CZ2"/>
+      <c r="CZ2" t="s">
+        <v>16</v>
+      </c>
       <c r="DA2"/>
       <c r="DB2"/>
       <c r="DC2"/>
@@ -7009,7 +6006,9 @@
       <c r="DG2"/>
       <c r="DH2"/>
       <c r="DI2"/>
-      <c r="DJ2"/>
+      <c r="DJ2" t="s">
+        <v>16</v>
+      </c>
       <c r="DK2"/>
       <c r="DL2"/>
       <c r="DM2"/>
@@ -7019,7 +6018,9 @@
       <c r="DQ2"/>
       <c r="DR2"/>
       <c r="DS2"/>
-      <c r="DT2"/>
+      <c r="DT2" t="s">
+        <v>16</v>
+      </c>
       <c r="DU2"/>
       <c r="DV2"/>
       <c r="DW2"/>
@@ -7112,68 +6113,28 @@
     </row>
     <row r="3">
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>91.0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
@@ -7254,7 +6215,9 @@
       <c r="CW3"/>
       <c r="CX3"/>
       <c r="CY3"/>
-      <c r="CZ3"/>
+      <c r="CZ3" t="n">
+        <v>107.0</v>
+      </c>
       <c r="DA3"/>
       <c r="DB3"/>
       <c r="DC3"/>
@@ -7264,7 +6227,9 @@
       <c r="DG3"/>
       <c r="DH3"/>
       <c r="DI3"/>
-      <c r="DJ3"/>
+      <c r="DJ3" t="n">
+        <v>91.0</v>
+      </c>
       <c r="DK3"/>
       <c r="DL3"/>
       <c r="DM3"/>
@@ -7274,7 +6239,9 @@
       <c r="DQ3"/>
       <c r="DR3"/>
       <c r="DS3"/>
-      <c r="DT3"/>
+      <c r="DT3" t="n">
+        <v>107.0</v>
+      </c>
       <c r="DU3"/>
       <c r="DV3"/>
       <c r="DW3"/>
@@ -7367,68 +6334,28 @@
     </row>
     <row r="4">
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6.0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
@@ -7509,7 +6436,9 @@
       <c r="CW4"/>
       <c r="CX4"/>
       <c r="CY4"/>
-      <c r="CZ4"/>
+      <c r="CZ4" t="n">
+        <v>7.0</v>
+      </c>
       <c r="DA4"/>
       <c r="DB4"/>
       <c r="DC4"/>
@@ -7519,7 +6448,9 @@
       <c r="DG4"/>
       <c r="DH4"/>
       <c r="DI4"/>
-      <c r="DJ4"/>
+      <c r="DJ4" t="n">
+        <v>22.0</v>
+      </c>
       <c r="DK4"/>
       <c r="DL4"/>
       <c r="DM4"/>
@@ -7529,7 +6460,9 @@
       <c r="DQ4"/>
       <c r="DR4"/>
       <c r="DS4"/>
-      <c r="DT4"/>
+      <c r="DT4" t="n">
+        <v>8.0</v>
+      </c>
       <c r="DU4"/>
       <c r="DV4"/>
       <c r="DW4"/>
@@ -7622,68 +6555,28 @@
     </row>
     <row r="5">
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>97.0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
@@ -7764,7 +6657,9 @@
       <c r="CW5"/>
       <c r="CX5"/>
       <c r="CY5"/>
-      <c r="CZ5"/>
+      <c r="CZ5" t="n">
+        <v>114.0</v>
+      </c>
       <c r="DA5"/>
       <c r="DB5"/>
       <c r="DC5"/>
@@ -7774,7 +6669,9 @@
       <c r="DG5"/>
       <c r="DH5"/>
       <c r="DI5"/>
-      <c r="DJ5"/>
+      <c r="DJ5" t="n">
+        <v>113.0</v>
+      </c>
       <c r="DK5"/>
       <c r="DL5"/>
       <c r="DM5"/>
@@ -7784,7 +6681,9 @@
       <c r="DQ5"/>
       <c r="DR5"/>
       <c r="DS5"/>
-      <c r="DT5"/>
+      <c r="DT5" t="n">
+        <v>115.0</v>
+      </c>
       <c r="DU5"/>
       <c r="DV5"/>
       <c r="DW5"/>
@@ -7877,68 +6776,28 @@
     </row>
     <row r="6">
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6"/>
@@ -8019,7 +6878,9 @@
       <c r="CW6"/>
       <c r="CX6"/>
       <c r="CY6"/>
-      <c r="CZ6"/>
+      <c r="CZ6" t="n">
+        <v>10.0</v>
+      </c>
       <c r="DA6"/>
       <c r="DB6"/>
       <c r="DC6"/>
@@ -8029,7 +6890,9 @@
       <c r="DG6"/>
       <c r="DH6"/>
       <c r="DI6"/>
-      <c r="DJ6"/>
+      <c r="DJ6" t="n">
+        <v>11.0</v>
+      </c>
       <c r="DK6"/>
       <c r="DL6"/>
       <c r="DM6"/>
@@ -8039,7 +6902,9 @@
       <c r="DQ6"/>
       <c r="DR6"/>
       <c r="DS6"/>
-      <c r="DT6"/>
+      <c r="DT6" t="n">
+        <v>12.0</v>
+      </c>
       <c r="DU6"/>
       <c r="DV6"/>
       <c r="DW6"/>
@@ -8132,68 +6997,28 @@
     </row>
     <row r="7">
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="n">
-        <v>241.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>157.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>152.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>178.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>169.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>149.0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>125.0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>151.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>157.0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>198.0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>161.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>136.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>116.0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>169.0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>192.0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>126.0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7"/>
@@ -8274,7 +7099,9 @@
       <c r="CW7"/>
       <c r="CX7"/>
       <c r="CY7"/>
-      <c r="CZ7"/>
+      <c r="CZ7" t="n">
+        <v>112.0</v>
+      </c>
       <c r="DA7"/>
       <c r="DB7"/>
       <c r="DC7"/>
@@ -8284,7 +7111,9 @@
       <c r="DG7"/>
       <c r="DH7"/>
       <c r="DI7"/>
-      <c r="DJ7"/>
+      <c r="DJ7" t="n">
+        <v>147.0</v>
+      </c>
       <c r="DK7"/>
       <c r="DL7"/>
       <c r="DM7"/>
@@ -8294,7 +7123,9 @@
       <c r="DQ7"/>
       <c r="DR7"/>
       <c r="DS7"/>
-      <c r="DT7"/>
+      <c r="DT7" t="n">
+        <v>140.0</v>
+      </c>
       <c r="DU7"/>
       <c r="DV7"/>
       <c r="DW7"/>
@@ -8387,68 +7218,28 @@
     </row>
     <row r="8">
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="n">
-        <v>449.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>361.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>415.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>346.0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>401.0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>399.0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>386.0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>341.0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>363.0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>387.0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>395.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>433.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>342.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>347.0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>366.0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>439.0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>433.0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>377.0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>367.0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
       <c r="Z8"/>
@@ -8529,7 +7320,9 @@
       <c r="CW8"/>
       <c r="CX8"/>
       <c r="CY8"/>
-      <c r="CZ8"/>
+      <c r="CZ8" t="n">
+        <v>402.0</v>
+      </c>
       <c r="DA8"/>
       <c r="DB8"/>
       <c r="DC8"/>
@@ -8539,7 +7332,9 @@
       <c r="DG8"/>
       <c r="DH8"/>
       <c r="DI8"/>
-      <c r="DJ8"/>
+      <c r="DJ8" t="n">
+        <v>393.0</v>
+      </c>
       <c r="DK8"/>
       <c r="DL8"/>
       <c r="DM8"/>
@@ -8549,7 +7344,9 @@
       <c r="DQ8"/>
       <c r="DR8"/>
       <c r="DS8"/>
-      <c r="DT8"/>
+      <c r="DT8" t="n">
+        <v>407.0</v>
+      </c>
       <c r="DU8"/>
       <c r="DV8"/>
       <c r="DW8"/>
@@ -8642,68 +7439,28 @@
     </row>
     <row r="9">
       <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>-7.0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>52.0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
       <c r="X9"/>
       <c r="Y9"/>
       <c r="Z9"/>
@@ -8784,7 +7541,9 @@
       <c r="CW9"/>
       <c r="CX9"/>
       <c r="CY9"/>
-      <c r="CZ9"/>
+      <c r="CZ9" t="n">
+        <v>80.0</v>
+      </c>
       <c r="DA9"/>
       <c r="DB9"/>
       <c r="DC9"/>
@@ -8794,7 +7553,9 @@
       <c r="DG9"/>
       <c r="DH9"/>
       <c r="DI9"/>
-      <c r="DJ9"/>
+      <c r="DJ9" t="n">
+        <v>80.0</v>
+      </c>
       <c r="DK9"/>
       <c r="DL9"/>
       <c r="DM9"/>
@@ -8804,7 +7565,9 @@
       <c r="DQ9"/>
       <c r="DR9"/>
       <c r="DS9"/>
-      <c r="DT9"/>
+      <c r="DT9" t="n">
+        <v>88.0</v>
+      </c>
       <c r="DU9"/>
       <c r="DV9"/>
       <c r="DW9"/>
@@ -8897,68 +7660,28 @@
     </row>
     <row r="10">
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>26.0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
       <c r="X10"/>
       <c r="Y10"/>
       <c r="Z10"/>
@@ -9039,7 +7762,9 @@
       <c r="CW10"/>
       <c r="CX10"/>
       <c r="CY10"/>
-      <c r="CZ10"/>
+      <c r="CZ10" t="n">
+        <v>491.0</v>
+      </c>
       <c r="DA10"/>
       <c r="DB10"/>
       <c r="DC10"/>
@@ -9049,7 +7774,9 @@
       <c r="DG10"/>
       <c r="DH10"/>
       <c r="DI10"/>
-      <c r="DJ10"/>
+      <c r="DJ10" t="n">
+        <v>677.0</v>
+      </c>
       <c r="DK10"/>
       <c r="DL10"/>
       <c r="DM10"/>
@@ -9059,7 +7786,9 @@
       <c r="DQ10"/>
       <c r="DR10"/>
       <c r="DS10"/>
-      <c r="DT10"/>
+      <c r="DT10" t="n">
+        <v>516.0</v>
+      </c>
       <c r="DU10"/>
       <c r="DV10"/>
       <c r="DW10"/>
@@ -9152,68 +7881,28 @@
     </row>
     <row r="11">
       <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4096.0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4092.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>4052.0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3956.0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>4092.0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>4054.0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4068.0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>4093.0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>3991.0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>4052.0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>4070.0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
       <c r="X11"/>
       <c r="Y11"/>
       <c r="Z11"/>
@@ -9294,7 +7983,9 @@
       <c r="CW11"/>
       <c r="CX11"/>
       <c r="CY11"/>
-      <c r="CZ11"/>
+      <c r="CZ11" t="n">
+        <v>3605.0</v>
+      </c>
       <c r="DA11"/>
       <c r="DB11"/>
       <c r="DC11"/>
@@ -9304,7 +7995,9 @@
       <c r="DG11"/>
       <c r="DH11"/>
       <c r="DI11"/>
-      <c r="DJ11"/>
+      <c r="DJ11" t="n">
+        <v>3419.0</v>
+      </c>
       <c r="DK11"/>
       <c r="DL11"/>
       <c r="DM11"/>
@@ -9314,7 +8007,9 @@
       <c r="DQ11"/>
       <c r="DR11"/>
       <c r="DS11"/>
-      <c r="DT11"/>
+      <c r="DT11" t="n">
+        <v>3580.0</v>
+      </c>
       <c r="DU11"/>
       <c r="DV11"/>
       <c r="DW11"/>
@@ -9407,68 +8102,28 @@
     </row>
     <row r="12">
       <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
       <c r="X12"/>
       <c r="Y12"/>
       <c r="Z12"/>
@@ -9549,7 +8204,9 @@
       <c r="CW12"/>
       <c r="CX12"/>
       <c r="CY12"/>
-      <c r="CZ12"/>
+      <c r="CZ12" t="n">
+        <v>0.0</v>
+      </c>
       <c r="DA12"/>
       <c r="DB12"/>
       <c r="DC12"/>
@@ -9559,7 +8216,9 @@
       <c r="DG12"/>
       <c r="DH12"/>
       <c r="DI12"/>
-      <c r="DJ12"/>
+      <c r="DJ12" t="n">
+        <v>0.0</v>
+      </c>
       <c r="DK12"/>
       <c r="DL12"/>
       <c r="DM12"/>
@@ -9569,7 +8228,9 @@
       <c r="DQ12"/>
       <c r="DR12"/>
       <c r="DS12"/>
-      <c r="DT12"/>
+      <c r="DT12" t="n">
+        <v>0.0</v>
+      </c>
       <c r="DU12"/>
       <c r="DV12"/>
       <c r="DW12"/>
@@ -9662,68 +8323,28 @@
     </row>
     <row r="13">
       <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>6.0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
       <c r="X13"/>
       <c r="Y13"/>
       <c r="Z13"/>
@@ -9804,7 +8425,9 @@
       <c r="CW13"/>
       <c r="CX13"/>
       <c r="CY13"/>
-      <c r="CZ13"/>
+      <c r="CZ13" t="n">
+        <v>6.0</v>
+      </c>
       <c r="DA13"/>
       <c r="DB13"/>
       <c r="DC13"/>
@@ -9814,7 +8437,9 @@
       <c r="DG13"/>
       <c r="DH13"/>
       <c r="DI13"/>
-      <c r="DJ13"/>
+      <c r="DJ13" t="n">
+        <v>6.0</v>
+      </c>
       <c r="DK13"/>
       <c r="DL13"/>
       <c r="DM13"/>
@@ -9824,7 +8449,9 @@
       <c r="DQ13"/>
       <c r="DR13"/>
       <c r="DS13"/>
-      <c r="DT13"/>
+      <c r="DT13" t="n">
+        <v>6.0</v>
+      </c>
       <c r="DU13"/>
       <c r="DV13"/>
       <c r="DW13"/>
@@ -9917,68 +8544,28 @@
     </row>
     <row r="14">
       <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.109619140625</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.088134765625</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.101318359375</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.08447265625</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.097900390625</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.097412109375</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.09423828125</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.083251953125</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.088623046875</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.094482421875</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.09652981427174975</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.10686080947680159</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.09605662285136501</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.08357771260997067</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.08559447459299457</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.08997050147492626</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.10725629122892744</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.10849411175144075</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.09304047384007898</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0.09017199017199017</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14"/>
@@ -10059,7 +8646,9 @@
       <c r="CW14"/>
       <c r="CX14"/>
       <c r="CY14"/>
-      <c r="CZ14"/>
+      <c r="CZ14" t="n">
+        <v>0.11151178918169209</v>
+      </c>
       <c r="DA14"/>
       <c r="DB14"/>
       <c r="DC14"/>
@@ -10069,7 +8658,9 @@
       <c r="DG14"/>
       <c r="DH14"/>
       <c r="DI14"/>
-      <c r="DJ14"/>
+      <c r="DJ14" t="n">
+        <v>0.11494589061128985</v>
+      </c>
       <c r="DK14"/>
       <c r="DL14"/>
       <c r="DM14"/>
@@ -10079,7 +8670,9 @@
       <c r="DQ14"/>
       <c r="DR14"/>
       <c r="DS14"/>
-      <c r="DT14"/>
+      <c r="DT14" t="n">
+        <v>0.11368715083798883</v>
+      </c>
       <c r="DU14"/>
       <c r="DV14"/>
       <c r="DW14"/>
@@ -10185,68 +8778,28 @@
   <sheetData>
     <row r="2">
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" t="s">
-        <v>8</v>
-      </c>
-      <c r="V2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" t="s">
-        <v>10</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
@@ -10327,7 +8880,9 @@
       <c r="CW2"/>
       <c r="CX2"/>
       <c r="CY2"/>
-      <c r="CZ2"/>
+      <c r="CZ2" t="s">
+        <v>1</v>
+      </c>
       <c r="DA2"/>
       <c r="DB2"/>
       <c r="DC2"/>
@@ -10337,7 +8892,9 @@
       <c r="DG2"/>
       <c r="DH2"/>
       <c r="DI2"/>
-      <c r="DJ2"/>
+      <c r="DJ2" t="s">
+        <v>1</v>
+      </c>
       <c r="DK2"/>
       <c r="DL2"/>
       <c r="DM2"/>
@@ -10347,7 +8904,9 @@
       <c r="DQ2"/>
       <c r="DR2"/>
       <c r="DS2"/>
-      <c r="DT2"/>
+      <c r="DT2" t="s">
+        <v>1</v>
+      </c>
       <c r="DU2"/>
       <c r="DV2"/>
       <c r="DW2"/>
@@ -10442,66 +9001,26 @@
       <c r="C3" t="n">
         <v>0.0</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.024437927663734114</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.024679170779861793</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.02527805864509606</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.024437927663734114</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.024666995559940803</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.024582104228121928</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.024431956999755682</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.025056376847907794</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.024679170779861793</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.02457002457002457</v>
-      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
@@ -10582,7 +9101,9 @@
       <c r="CW3"/>
       <c r="CX3"/>
       <c r="CY3"/>
-      <c r="CZ3"/>
+      <c r="CZ3" t="n">
+        <v>0.027739251040221912</v>
+      </c>
       <c r="DA3"/>
       <c r="DB3"/>
       <c r="DC3"/>
@@ -10592,7 +9113,9 @@
       <c r="DG3"/>
       <c r="DH3"/>
       <c r="DI3"/>
-      <c r="DJ3"/>
+      <c r="DJ3" t="n">
+        <v>0.029248318221702253</v>
+      </c>
       <c r="DK3"/>
       <c r="DL3"/>
       <c r="DM3"/>
@@ -10602,7 +9125,9 @@
       <c r="DQ3"/>
       <c r="DR3"/>
       <c r="DS3"/>
-      <c r="DT3"/>
+      <c r="DT3" t="n">
+        <v>0.027932960893854747</v>
+      </c>
       <c r="DU3"/>
       <c r="DV3"/>
       <c r="DW3"/>
@@ -10697,66 +9222,26 @@
       <c r="C4" t="n">
         <v>1.0</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.66015625</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.85546875</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.85546875</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.8798828125</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.85546875</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.85546875</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.85546875</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.85546875</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.85546875</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.953125</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.857282502443793</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.8756169792694966</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.9211324570273005</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.857282502443793</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.8746916625555006</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.8682399213372665</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.8568287319814316</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.904284640440992</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.8756169792694966</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.8673218673218674</v>
-      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
@@ -10837,7 +9322,9 @@
       <c r="CW4"/>
       <c r="CX4"/>
       <c r="CY4"/>
-      <c r="CZ4"/>
+      <c r="CZ4" t="n">
+        <v>1.9140083217753119</v>
+      </c>
       <c r="DA4"/>
       <c r="DB4"/>
       <c r="DC4"/>
@@ -10847,7 +9334,9 @@
       <c r="DG4"/>
       <c r="DH4"/>
       <c r="DI4"/>
-      <c r="DJ4"/>
+      <c r="DJ4" t="n">
+        <v>2.2521205030710734</v>
+      </c>
       <c r="DK4"/>
       <c r="DL4"/>
       <c r="DM4"/>
@@ -10857,7 +9346,9 @@
       <c r="DQ4"/>
       <c r="DR4"/>
       <c r="DS4"/>
-      <c r="DT4"/>
+      <c r="DT4" t="n">
+        <v>2.1508379888268156</v>
+      </c>
       <c r="DU4"/>
       <c r="DV4"/>
       <c r="DW4"/>
@@ -10952,66 +9443,26 @@
       <c r="C5" t="n">
         <v>2.0</v>
       </c>
-      <c r="D5" t="n">
-        <v>3.3447265625</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.5400390625</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.5400390625</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.5400390625</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.5400390625</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.5400390625</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.5400390625</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.5400390625</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.5400390625</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3.5400390625</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.543499511241447</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3.5784797630799607</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.665318503538928</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3.543499511241447</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3.3547113961519486</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.5644051130776795</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.4204739799657955</v>
-      </c>
-      <c r="U5" t="n">
-        <v>3.608118266098722</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3.4797630799605135</v>
-      </c>
-      <c r="W5" t="n">
-        <v>3.4643734643734643</v>
-      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
@@ -11092,7 +9543,9 @@
       <c r="CW5"/>
       <c r="CX5"/>
       <c r="CY5"/>
-      <c r="CZ5"/>
+      <c r="CZ5" t="n">
+        <v>3.8834951456310676</v>
+      </c>
       <c r="DA5"/>
       <c r="DB5"/>
       <c r="DC5"/>
@@ -11102,7 +9555,9 @@
       <c r="DG5"/>
       <c r="DH5"/>
       <c r="DI5"/>
-      <c r="DJ5"/>
+      <c r="DJ5" t="n">
+        <v>4.007019596373208</v>
+      </c>
       <c r="DK5"/>
       <c r="DL5"/>
       <c r="DM5"/>
@@ -11112,7 +9567,9 @@
       <c r="DQ5"/>
       <c r="DR5"/>
       <c r="DS5"/>
-      <c r="DT5"/>
+      <c r="DT5" t="n">
+        <v>3.798882681564246</v>
+      </c>
       <c r="DU5"/>
       <c r="DV5"/>
       <c r="DW5"/>
@@ -11207,66 +9664,26 @@
       <c r="C6" t="n">
         <v>3.0</v>
       </c>
-      <c r="D6" t="n">
-        <v>4.98046875</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5.078125</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5.17578125</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5.2001953125</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5.17578125</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.2001953125</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.17578125</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.078125</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.078125</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5.17578125</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5.083088954056696</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5.256663376110563</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5.358948432760364</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5.083088954056696</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5.032067094227923</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5.2114060963618485</v>
-      </c>
-      <c r="T6" t="n">
-        <v>5.081847055949182</v>
-      </c>
-      <c r="U6" t="n">
-        <v>5.236782761212728</v>
-      </c>
-      <c r="V6" t="n">
-        <v>5.133267522211254</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5.110565110565111</v>
-      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6"/>
@@ -11347,7 +9764,9 @@
       <c r="CW6"/>
       <c r="CX6"/>
       <c r="CY6"/>
-      <c r="CZ6"/>
+      <c r="CZ6" t="n">
+        <v>5.6865464632454925</v>
+      </c>
       <c r="DA6"/>
       <c r="DB6"/>
       <c r="DC6"/>
@@ -11357,7 +9776,9 @@
       <c r="DG6"/>
       <c r="DH6"/>
       <c r="DI6"/>
-      <c r="DJ6"/>
+      <c r="DJ6" t="n">
+        <v>6.142146826557473</v>
+      </c>
       <c r="DK6"/>
       <c r="DL6"/>
       <c r="DM6"/>
@@ -11367,7 +9788,9 @@
       <c r="DQ6"/>
       <c r="DR6"/>
       <c r="DS6"/>
-      <c r="DT6"/>
+      <c r="DT6" t="n">
+        <v>5.698324022346369</v>
+      </c>
       <c r="DU6"/>
       <c r="DV6"/>
       <c r="DW6"/>
@@ -11462,66 +9885,26 @@
       <c r="C7" t="n">
         <v>4.0</v>
       </c>
-      <c r="D7" t="n">
-        <v>6.640625</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6.73828125</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6.73828125</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6.8603515625</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6.73828125</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.7626953125</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.73828125</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.73828125</v>
-      </c>
-      <c r="L7" t="n">
-        <v>6.73828125</v>
-      </c>
-      <c r="M7" t="n">
-        <v>6.73828125</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.647116324535679</v>
-      </c>
-      <c r="O7" t="n">
-        <v>6.910167818361303</v>
-      </c>
-      <c r="P7" t="n">
-        <v>7.077856420626897</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>6.744868035190615</v>
-      </c>
-      <c r="R7" t="n">
-        <v>6.709422792303897</v>
-      </c>
-      <c r="S7" t="n">
-        <v>6.784660766961652</v>
-      </c>
-      <c r="T7" t="n">
-        <v>6.743220131932567</v>
-      </c>
-      <c r="U7" t="n">
-        <v>6.940616386870459</v>
-      </c>
-      <c r="V7" t="n">
-        <v>6.836130306021718</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6.781326781326781</v>
-      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7"/>
@@ -11602,7 +9985,9 @@
       <c r="CW7"/>
       <c r="CX7"/>
       <c r="CY7"/>
-      <c r="CZ7"/>
+      <c r="CZ7" t="n">
+        <v>7.6560332871012475</v>
+      </c>
       <c r="DA7"/>
       <c r="DB7"/>
       <c r="DC7"/>
@@ -11612,7 +9997,9 @@
       <c r="DG7"/>
       <c r="DH7"/>
       <c r="DI7"/>
-      <c r="DJ7"/>
+      <c r="DJ7" t="n">
+        <v>8.248025738520035</v>
+      </c>
       <c r="DK7"/>
       <c r="DL7"/>
       <c r="DM7"/>
@@ -11622,7 +10009,9 @@
       <c r="DQ7"/>
       <c r="DR7"/>
       <c r="DS7"/>
-      <c r="DT7"/>
+      <c r="DT7" t="n">
+        <v>7.737430167597766</v>
+      </c>
       <c r="DU7"/>
       <c r="DV7"/>
       <c r="DW7"/>
@@ -11728,68 +10117,28 @@
   <sheetData>
     <row r="2">
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
@@ -11870,7 +10219,9 @@
       <c r="CW2"/>
       <c r="CX2"/>
       <c r="CY2"/>
-      <c r="CZ2"/>
+      <c r="CZ2" t="s">
+        <v>15</v>
+      </c>
       <c r="DA2"/>
       <c r="DB2"/>
       <c r="DC2"/>
@@ -11880,7 +10231,9 @@
       <c r="DG2"/>
       <c r="DH2"/>
       <c r="DI2"/>
-      <c r="DJ2"/>
+      <c r="DJ2" t="s">
+        <v>15</v>
+      </c>
       <c r="DK2"/>
       <c r="DL2"/>
       <c r="DM2"/>
@@ -11890,7 +10243,9 @@
       <c r="DQ2"/>
       <c r="DR2"/>
       <c r="DS2"/>
-      <c r="DT2"/>
+      <c r="DT2" t="s">
+        <v>15</v>
+      </c>
       <c r="DU2"/>
       <c r="DV2"/>
       <c r="DW2"/>
@@ -11985,66 +10340,26 @@
       <c r="C3" t="n">
         <v>0.0</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.024437927663734114</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.024679170779861793</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.02527805864509606</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.024437927663734114</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.024666995559940803</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.024582104228121928</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.024431956999755682</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.025056376847907794</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.024679170779861793</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.02457002457002457</v>
-      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
@@ -12125,7 +10440,9 @@
       <c r="CW3"/>
       <c r="CX3"/>
       <c r="CY3"/>
-      <c r="CZ3"/>
+      <c r="CZ3" t="n">
+        <v>0.027739251040221912</v>
+      </c>
       <c r="DA3"/>
       <c r="DB3"/>
       <c r="DC3"/>
@@ -12135,7 +10452,9 @@
       <c r="DG3"/>
       <c r="DH3"/>
       <c r="DI3"/>
-      <c r="DJ3"/>
+      <c r="DJ3" t="n">
+        <v>0.029248318221702253</v>
+      </c>
       <c r="DK3"/>
       <c r="DL3"/>
       <c r="DM3"/>
@@ -12145,7 +10464,9 @@
       <c r="DQ3"/>
       <c r="DR3"/>
       <c r="DS3"/>
-      <c r="DT3"/>
+      <c r="DT3" t="n">
+        <v>0.027932960893854747</v>
+      </c>
       <c r="DU3"/>
       <c r="DV3"/>
       <c r="DW3"/>
@@ -12240,66 +10561,26 @@
       <c r="C4" t="n">
         <v>1.0</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.7578125</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.85546875</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.953125</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.7822265625</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.85546875</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.85546875</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.85546875</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.85546875</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.8798828125</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.953125</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.857282502443793</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.8756169792694966</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.9211324570273005</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.857282502443793</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.8746916625555006</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.8682399213372665</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.8812606889811874</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.9293410172888998</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.8756169792694966</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.8673218673218674</v>
-      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
@@ -12380,7 +10661,9 @@
       <c r="CW4"/>
       <c r="CX4"/>
       <c r="CY4"/>
-      <c r="CZ4"/>
+      <c r="CZ4" t="n">
+        <v>2.46879334257975</v>
+      </c>
       <c r="DA4"/>
       <c r="DB4"/>
       <c r="DC4"/>
@@ -12390,7 +10673,9 @@
       <c r="DG4"/>
       <c r="DH4"/>
       <c r="DI4"/>
-      <c r="DJ4"/>
+      <c r="DJ4" t="n">
+        <v>2.5153553670663937</v>
+      </c>
       <c r="DK4"/>
       <c r="DL4"/>
       <c r="DM4"/>
@@ -12400,7 +10685,9 @@
       <c r="DQ4"/>
       <c r="DR4"/>
       <c r="DS4"/>
-      <c r="DT4"/>
+      <c r="DT4" t="n">
+        <v>2.3743016759776534</v>
+      </c>
       <c r="DU4"/>
       <c r="DV4"/>
       <c r="DW4"/>
@@ -12495,66 +10782,26 @@
       <c r="C5" t="n">
         <v>2.0</v>
       </c>
-      <c r="D5" t="n">
-        <v>3.4423828125</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.515625</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.515625</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.4423828125</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.515625</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.515625</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.5400390625</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.515625</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.5400390625</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3.22265625</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.543499511241447</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3.5784797630799607</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.5389282103134483</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3.543499511241447</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3.5520473606314753</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.5644051130776795</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.5426337649645734</v>
-      </c>
-      <c r="U5" t="n">
-        <v>3.63317464294663</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3.5784797630799607</v>
-      </c>
-      <c r="W5" t="n">
-        <v>3.5380835380835385</v>
-      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
@@ -12635,7 +10882,9 @@
       <c r="CW5"/>
       <c r="CX5"/>
       <c r="CY5"/>
-      <c r="CZ5"/>
+      <c r="CZ5" t="n">
+        <v>4.5769764216366156</v>
+      </c>
       <c r="DA5"/>
       <c r="DB5"/>
       <c r="DC5"/>
@@ -12645,7 +10894,9 @@
       <c r="DG5"/>
       <c r="DH5"/>
       <c r="DI5"/>
-      <c r="DJ5"/>
+      <c r="DJ5" t="n">
+        <v>4.738227551915765</v>
+      </c>
       <c r="DK5"/>
       <c r="DL5"/>
       <c r="DM5"/>
@@ -12655,7 +10906,9 @@
       <c r="DQ5"/>
       <c r="DR5"/>
       <c r="DS5"/>
-      <c r="DT5"/>
+      <c r="DT5" t="n">
+        <v>4.4972067039106145</v>
+      </c>
       <c r="DU5"/>
       <c r="DV5"/>
       <c r="DW5"/>
@@ -12750,66 +11003,26 @@
       <c r="C6" t="n">
         <v>3.0</v>
       </c>
-      <c r="D6" t="n">
-        <v>5.1025390625</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5.2001953125</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5.2001953125</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5.1025390625</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5.1025390625</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.17578125</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.2001953125</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.078125</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.2001953125</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4.9072265625</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5.205278592375366</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5.256663376110563</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5.283114256825075</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4.7165200391006845</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5.25407005426739</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5.235988200589971</v>
-      </c>
-      <c r="T6" t="n">
-        <v>5.20400684094796</v>
-      </c>
-      <c r="U6" t="n">
-        <v>5.311951891756452</v>
-      </c>
-      <c r="V6" t="n">
-        <v>5.157946692991115</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5.135135135135135</v>
-      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6"/>
@@ -12890,7 +11103,9 @@
       <c r="CW6"/>
       <c r="CX6"/>
       <c r="CY6"/>
-      <c r="CZ6"/>
+      <c r="CZ6" t="n">
+        <v>6.796116504854369</v>
+      </c>
       <c r="DA6"/>
       <c r="DB6"/>
       <c r="DC6"/>
@@ -12900,7 +11115,9 @@
       <c r="DG6"/>
       <c r="DH6"/>
       <c r="DI6"/>
-      <c r="DJ6"/>
+      <c r="DJ6" t="n">
+        <v>7.048844691430242</v>
+      </c>
       <c r="DK6"/>
       <c r="DL6"/>
       <c r="DM6"/>
@@ -12910,7 +11127,9 @@
       <c r="DQ6"/>
       <c r="DR6"/>
       <c r="DS6"/>
-      <c r="DT6"/>
+      <c r="DT6" t="n">
+        <v>6.620111731843576</v>
+      </c>
       <c r="DU6"/>
       <c r="DV6"/>
       <c r="DW6"/>
@@ -13005,66 +11224,26 @@
       <c r="C7" t="n">
         <v>4.0</v>
       </c>
-      <c r="D7" t="n">
-        <v>6.6650390625</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6.8603515625</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6.8603515625</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6.7626953125</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6.7626953125</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.8603515625</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.7626953125</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.7626953125</v>
-      </c>
-      <c r="L7" t="n">
-        <v>6.7626953125</v>
-      </c>
-      <c r="M7" t="n">
-        <v>6.5673828125</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.867057673509286</v>
-      </c>
-      <c r="O7" t="n">
-        <v>6.934846989141165</v>
-      </c>
-      <c r="P7" t="n">
-        <v>7.002022244691608</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5.889540566959922</v>
-      </c>
-      <c r="R7" t="n">
-        <v>6.931425752343364</v>
-      </c>
-      <c r="S7" t="n">
-        <v>6.907571288102261</v>
-      </c>
-      <c r="T7" t="n">
-        <v>6.840947959931591</v>
-      </c>
-      <c r="U7" t="n">
-        <v>6.915560010022551</v>
-      </c>
-      <c r="V7" t="n">
-        <v>6.836130306021718</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6.805896805896807</v>
-      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7"/>
@@ -13145,7 +11324,9 @@
       <c r="CW7"/>
       <c r="CX7"/>
       <c r="CY7"/>
-      <c r="CZ7"/>
+      <c r="CZ7" t="n">
+        <v>8.904299583911236</v>
+      </c>
       <c r="DA7"/>
       <c r="DB7"/>
       <c r="DC7"/>
@@ -13155,7 +11336,9 @@
       <c r="DG7"/>
       <c r="DH7"/>
       <c r="DI7"/>
-      <c r="DJ7"/>
+      <c r="DJ7" t="n">
+        <v>9.271716876279614</v>
+      </c>
       <c r="DK7"/>
       <c r="DL7"/>
       <c r="DM7"/>
@@ -13165,7 +11348,9 @@
       <c r="DQ7"/>
       <c r="DR7"/>
       <c r="DS7"/>
-      <c r="DT7"/>
+      <c r="DT7" t="n">
+        <v>8.854748603351956</v>
+      </c>
       <c r="DU7"/>
       <c r="DV7"/>
       <c r="DW7"/>
@@ -13271,68 +11456,28 @@
   <sheetData>
     <row r="2">
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" t="s">
-        <v>43</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
@@ -13413,7 +11558,9 @@
       <c r="CW2"/>
       <c r="CX2"/>
       <c r="CY2"/>
-      <c r="CZ2"/>
+      <c r="CZ2" t="s">
+        <v>16</v>
+      </c>
       <c r="DA2"/>
       <c r="DB2"/>
       <c r="DC2"/>
@@ -13423,7 +11570,9 @@
       <c r="DG2"/>
       <c r="DH2"/>
       <c r="DI2"/>
-      <c r="DJ2"/>
+      <c r="DJ2" t="s">
+        <v>16</v>
+      </c>
       <c r="DK2"/>
       <c r="DL2"/>
       <c r="DM2"/>
@@ -13433,7 +11582,9 @@
       <c r="DQ2"/>
       <c r="DR2"/>
       <c r="DS2"/>
-      <c r="DT2"/>
+      <c r="DT2" t="s">
+        <v>16</v>
+      </c>
       <c r="DU2"/>
       <c r="DV2"/>
       <c r="DW2"/>
@@ -13528,66 +11679,26 @@
       <c r="C3" t="n">
         <v>0.0</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0244140625</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.024437927663734114</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.024679170779861793</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.02527805864509606</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.024437927663734114</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.024666995559940803</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.024582104228121928</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.024431956999755682</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.025056376847907794</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.024679170779861793</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.02457002457002457</v>
-      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
@@ -13668,7 +11779,9 @@
       <c r="CW3"/>
       <c r="CX3"/>
       <c r="CY3"/>
-      <c r="CZ3"/>
+      <c r="CZ3" t="n">
+        <v>0.027739251040221912</v>
+      </c>
       <c r="DA3"/>
       <c r="DB3"/>
       <c r="DC3"/>
@@ -13678,7 +11791,9 @@
       <c r="DG3"/>
       <c r="DH3"/>
       <c r="DI3"/>
-      <c r="DJ3"/>
+      <c r="DJ3" t="n">
+        <v>0.029248318221702253</v>
+      </c>
       <c r="DK3"/>
       <c r="DL3"/>
       <c r="DM3"/>
@@ -13688,7 +11803,9 @@
       <c r="DQ3"/>
       <c r="DR3"/>
       <c r="DS3"/>
-      <c r="DT3"/>
+      <c r="DT3" t="n">
+        <v>0.027932960893854747</v>
+      </c>
       <c r="DU3"/>
       <c r="DV3"/>
       <c r="DW3"/>
@@ -13783,66 +11900,26 @@
       <c r="C4" t="n">
         <v>1.0</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.85546875</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.85546875</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.85546875</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.85546875</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.85546875</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.85546875</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.6845703125</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.953125</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.85546875</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.857282502443793</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.8756169792694966</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.9211324570273005</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.7595307917888565</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.8746916625555006</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.7699115044247788</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.9056926459809431</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.1047356552242547</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.8756169792694966</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.8673218673218674</v>
-      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
@@ -13923,7 +12000,9 @@
       <c r="CW4"/>
       <c r="CX4"/>
       <c r="CY4"/>
-      <c r="CZ4"/>
+      <c r="CZ4" t="n">
+        <v>2.3855755894590844</v>
+      </c>
       <c r="DA4"/>
       <c r="DB4"/>
       <c r="DC4"/>
@@ -13933,7 +12012,9 @@
       <c r="DG4"/>
       <c r="DH4"/>
       <c r="DI4"/>
-      <c r="DJ4"/>
+      <c r="DJ4" t="n">
+        <v>2.6615969581749046</v>
+      </c>
       <c r="DK4"/>
       <c r="DL4"/>
       <c r="DM4"/>
@@ -13943,7 +12024,9 @@
       <c r="DQ4"/>
       <c r="DR4"/>
       <c r="DS4"/>
-      <c r="DT4"/>
+      <c r="DT4" t="n">
+        <v>2.6815642458100557</v>
+      </c>
       <c r="DU4"/>
       <c r="DV4"/>
       <c r="DW4"/>
@@ -14038,66 +12121,26 @@
       <c r="C5" t="n">
         <v>2.0</v>
       </c>
-      <c r="D5" t="n">
-        <v>3.4423828125</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.515625</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.4423828125</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.662109375</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.515625</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.61328125</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.34375</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.515625</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.3203125</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3.515625</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.3968719452590417</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3.3070088845014807</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.640040444893832</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3.6656891495601176</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3.2807104094721264</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.146509341199607</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.738089420962619</v>
-      </c>
-      <c r="U5" t="n">
-        <v>3.9589075419694315</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3.1095755182625866</v>
-      </c>
-      <c r="W5" t="n">
-        <v>3.2432432432432434</v>
-      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
@@ -14178,7 +12221,9 @@
       <c r="CW5"/>
       <c r="CX5"/>
       <c r="CY5"/>
-      <c r="CZ5"/>
+      <c r="CZ5" t="n">
+        <v>4.715672676837725</v>
+      </c>
       <c r="DA5"/>
       <c r="DB5"/>
       <c r="DC5"/>
@@ -14188,7 +12233,9 @@
       <c r="DG5"/>
       <c r="DH5"/>
       <c r="DI5"/>
-      <c r="DJ5"/>
+      <c r="DJ5" t="n">
+        <v>4.094764551038315</v>
+      </c>
       <c r="DK5"/>
       <c r="DL5"/>
       <c r="DM5"/>
@@ -14198,7 +12245,9 @@
       <c r="DQ5"/>
       <c r="DR5"/>
       <c r="DS5"/>
-      <c r="DT5"/>
+      <c r="DT5" t="n">
+        <v>5.083798882681564</v>
+      </c>
       <c r="DU5"/>
       <c r="DV5"/>
       <c r="DW5"/>
@@ -14293,66 +12342,26 @@
       <c r="C6" t="n">
         <v>3.0</v>
       </c>
-      <c r="D6" t="n">
-        <v>5.4931640625</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.98046875</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5.3955078125</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5.2978515625</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.3212890625</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.37109375</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.248046875</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.1025390625</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.078125</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5.3955078125</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.374389051808407</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5.330700888450148</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5.131445904954499</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5.2297165200391005</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4.292057227429699</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.621435594886923</v>
-      </c>
-      <c r="T6" t="n">
-        <v>5.570486195944295</v>
-      </c>
-      <c r="U6" t="n">
-        <v>5.7629666750187925</v>
-      </c>
-      <c r="V6" t="n">
-        <v>4.466929911154986</v>
-      </c>
-      <c r="W6" t="n">
-        <v>4.717444717444717</v>
-      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6"/>
@@ -14433,7 +12442,9 @@
       <c r="CW6"/>
       <c r="CX6"/>
       <c r="CY6"/>
-      <c r="CZ6"/>
+      <c r="CZ6" t="n">
+        <v>6.490984743411928</v>
+      </c>
       <c r="DA6"/>
       <c r="DB6"/>
       <c r="DC6"/>
@@ -14443,7 +12454,9 @@
       <c r="DG6"/>
       <c r="DH6"/>
       <c r="DI6"/>
-      <c r="DJ6"/>
+      <c r="DJ6" t="n">
+        <v>6.551623281661305</v>
+      </c>
       <c r="DK6"/>
       <c r="DL6"/>
       <c r="DM6"/>
@@ -14453,7 +12466,9 @@
       <c r="DQ6"/>
       <c r="DR6"/>
       <c r="DS6"/>
-      <c r="DT6"/>
+      <c r="DT6" t="n">
+        <v>5.698324022346369</v>
+      </c>
       <c r="DU6"/>
       <c r="DV6"/>
       <c r="DW6"/>
@@ -14548,66 +12563,26 @@
       <c r="C7" t="n">
         <v>4.0</v>
       </c>
-      <c r="D7" t="n">
-        <v>7.5439453125</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6.5673828125</v>
-      </c>
-      <c r="F7" t="n">
-        <v>7.0556640625</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6.9580078125</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6.103515625</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.2255859375</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.15234375</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7.1044921875</v>
-      </c>
-      <c r="L7" t="n">
-        <v>6.787109375</v>
-      </c>
-      <c r="M7" t="n">
-        <v>6.640625</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5.913978494623656</v>
-      </c>
-      <c r="O7" t="n">
-        <v>7.305034550839092</v>
-      </c>
-      <c r="P7" t="n">
-        <v>6.8503538928210315</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>6.109481915933529</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5.180069067587568</v>
-      </c>
-      <c r="S7" t="n">
-        <v>6.1946902654867255</v>
-      </c>
-      <c r="T7" t="n">
-        <v>7.207427314927926</v>
-      </c>
-      <c r="U7" t="n">
-        <v>7.592082184916062</v>
-      </c>
-      <c r="V7" t="n">
-        <v>6.293188548864759</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6.191646191646192</v>
-      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7"/>
@@ -14688,7 +12663,9 @@
       <c r="CW7"/>
       <c r="CX7"/>
       <c r="CY7"/>
-      <c r="CZ7"/>
+      <c r="CZ7" t="n">
+        <v>8.682385575589459</v>
+      </c>
       <c r="DA7"/>
       <c r="DB7"/>
       <c r="DC7"/>
@@ -14698,7 +12675,9 @@
       <c r="DG7"/>
       <c r="DH7"/>
       <c r="DI7"/>
-      <c r="DJ7"/>
+      <c r="DJ7" t="n">
+        <v>8.979233694062591</v>
+      </c>
       <c r="DK7"/>
       <c r="DL7"/>
       <c r="DM7"/>
@@ -14708,7 +12687,9 @@
       <c r="DQ7"/>
       <c r="DR7"/>
       <c r="DS7"/>
-      <c r="DT7"/>
+      <c r="DT7" t="n">
+        <v>6.759776536312849</v>
+      </c>
       <c r="DU7"/>
       <c r="DV7"/>
       <c r="DW7"/>
